--- a/data/output/FV2504_FV2410/UTILMD/55555.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55555.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="426">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4183" uniqueCount="426">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1482,6 +1482,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U239" totalsRowShown="0">
+  <autoFilter ref="A1:U239"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1771,7 +1801,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11945,5 +11978,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55555.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55555.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5120" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5040" uniqueCount="659">
   <si>
     <t>#</t>
   </si>
@@ -3172,48 +3172,46 @@
       <c r="V12" s="9"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V13" s="5"/>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
@@ -3243,9 +3241,7 @@
         <v>267</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="5" t="s">
         <v>24</v>
       </c>
@@ -3299,9 +3295,7 @@
       <c r="K15" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="5" t="s">
         <v>24</v>
       </c>
@@ -3355,9 +3349,7 @@
         <v>267</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="5" t="s">
         <v>24</v>
       </c>
@@ -3384,44 +3376,42 @@
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M17" s="5" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V17" s="5"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
@@ -3447,9 +3437,7 @@
         <v>266</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="5" t="s">
         <v>25</v>
       </c>
@@ -3501,9 +3489,7 @@
         <v>267</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="5" t="s">
         <v>25</v>
       </c>
@@ -3559,9 +3545,7 @@
         <v>267</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="5" t="s">
         <v>25</v>
       </c>
@@ -3617,9 +3601,7 @@
         <v>267</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="5" t="s">
         <v>25</v>
       </c>
@@ -3675,9 +3657,7 @@
         <v>267</v>
       </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
         <v>25</v>
       </c>
@@ -3704,44 +3684,42 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V23" s="5"/>
+      <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
@@ -3767,9 +3745,7 @@
         <v>266</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
         <v>26</v>
       </c>
@@ -3821,9 +3797,7 @@
         <v>267</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
         <v>26</v>
       </c>
@@ -3879,9 +3853,7 @@
         <v>267</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
         <v>26</v>
       </c>
@@ -3908,52 +3880,50 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5" t="s">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5" t="s">
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V27" s="5"/>
+      <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="5" t="s">
@@ -3985,9 +3955,7 @@
       <c r="K28" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
         <v>27</v>
       </c>
@@ -4045,9 +4013,7 @@
         <v>271</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="5" t="s">
         <v>27</v>
       </c>
@@ -4103,9 +4069,7 @@
         <v>271</v>
       </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="5" t="s">
         <v>27</v>
       </c>
@@ -4159,9 +4123,7 @@
         <v>271</v>
       </c>
       <c r="K31" s="5"/>
-      <c r="L31" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="5" t="s">
         <v>27</v>
       </c>
@@ -4215,9 +4177,7 @@
         <v>271</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="5" t="s">
         <v>27</v>
       </c>
@@ -4271,9 +4231,7 @@
         <v>271</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="5" t="s">
         <v>27</v>
       </c>
@@ -4300,44 +4258,42 @@
       <c r="V33" s="5"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M34" s="5" t="s">
+      <c r="K34" s="2"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5" t="s">
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V34" s="5"/>
+      <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
@@ -4363,9 +4319,7 @@
         <v>266</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
         <v>28</v>
       </c>
@@ -4417,9 +4371,7 @@
         <v>267</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4475,9 +4427,7 @@
         <v>267</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>28</v>
       </c>
@@ -4533,9 +4483,7 @@
         <v>267</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>28</v>
       </c>
@@ -4591,9 +4539,7 @@
         <v>267</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
         <v>28</v>
       </c>
@@ -4620,44 +4566,42 @@
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M40" s="5" t="s">
+      <c r="K40" s="2"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5" t="s">
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V40" s="5"/>
+      <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
@@ -4683,9 +4627,7 @@
         <v>266</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>29</v>
       </c>
@@ -4737,9 +4679,7 @@
         <v>267</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>29</v>
       </c>
@@ -4795,9 +4735,7 @@
         <v>267</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="5" t="s">
         <v>29</v>
       </c>
@@ -6520,44 +6458,42 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M80" s="5" t="s">
+      <c r="K80" s="2"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V80" s="5"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
@@ -6726,44 +6662,42 @@
       <c r="V83" s="5"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5" t="s">
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M84" s="5" t="s">
+      <c r="K84" s="2"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N84" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5" t="s">
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V84" s="5"/>
+      <c r="V84" s="2"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="5" t="s">
@@ -6930,44 +6864,42 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="K88" s="2"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V88" s="5"/>
+      <c r="V88" s="2"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -8591,9 +8523,7 @@
         <v>267</v>
       </c>
       <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>42</v>
       </c>
@@ -8647,9 +8577,7 @@
         <v>267</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>42</v>
       </c>
@@ -8703,9 +8631,7 @@
         <v>267</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>42</v>
       </c>
@@ -10774,46 +10700,44 @@
       <c r="V174" s="9"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5" t="s">
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K175" s="5" t="s">
+      <c r="K175" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="L175" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M175" s="5" t="s">
+      <c r="L175" s="4"/>
+      <c r="M175" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N175" s="5" t="s">
+      <c r="N175" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O175" s="5"/>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5" t="s">
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V175" s="5" t="s">
+      <c r="V175" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -12900,44 +12824,42 @@
       <c r="V225" s="5"/>
     </row>
     <row r="226" spans="1:22">
-      <c r="A226" s="5" t="s">
+      <c r="A226" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="C226" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="5"/>
-      <c r="H226" s="5"/>
-      <c r="I226" s="5"/>
-      <c r="J226" s="5" t="s">
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K226" s="5"/>
-      <c r="L226" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M226" s="5" t="s">
+      <c r="K226" s="2"/>
+      <c r="L226" s="4"/>
+      <c r="M226" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N226" s="5" t="s">
+      <c r="N226" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O226" s="5"/>
-      <c r="P226" s="5"/>
-      <c r="Q226" s="5"/>
-      <c r="R226" s="5"/>
-      <c r="S226" s="5"/>
-      <c r="T226" s="5"/>
-      <c r="U226" s="5" t="s">
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" s="2"/>
+      <c r="R226" s="2"/>
+      <c r="S226" s="2"/>
+      <c r="T226" s="2"/>
+      <c r="U226" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V226" s="5"/>
+      <c r="V226" s="2"/>
     </row>
     <row r="227" spans="1:22">
       <c r="A227" s="5" t="s">
@@ -13268,44 +13190,42 @@
       <c r="V232" s="5"/>
     </row>
     <row r="233" spans="1:22">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C233" s="5" t="s">
+      <c r="C233" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
-      <c r="H233" s="5"/>
-      <c r="I233" s="5"/>
-      <c r="J233" s="5" t="s">
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K233" s="5"/>
-      <c r="L233" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M233" s="5" t="s">
+      <c r="K233" s="2"/>
+      <c r="L233" s="4"/>
+      <c r="M233" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N233" s="5" t="s">
+      <c r="N233" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O233" s="5"/>
-      <c r="P233" s="5"/>
-      <c r="Q233" s="5"/>
-      <c r="R233" s="5"/>
-      <c r="S233" s="5"/>
-      <c r="T233" s="5"/>
-      <c r="U233" s="5" t="s">
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
+      <c r="U233" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V233" s="5"/>
+      <c r="V233" s="2"/>
     </row>
     <row r="234" spans="1:22">
       <c r="A234" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILMD/55555.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55555.xlsx
@@ -2165,7 +2165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2194,11 +2194,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2638,7 +2644,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3002,7 +3008,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3194,7 +3200,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3396,7 +3402,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3704,7 +3710,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3904,7 +3910,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4278,7 +4284,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4586,7 +4592,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4768,24 +4774,24 @@
       <c r="B44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10" t="s">
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="11" t="s">
+      <c r="K44" s="11"/>
+      <c r="L44" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M44" s="5"/>
@@ -4803,33 +4809,33 @@
       <c r="A45" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10" t="s">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11" t="s">
+      <c r="J45" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M45" s="5"/>
@@ -4847,31 +4853,31 @@
       <c r="A46" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10" t="s">
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="11" t="s">
+      <c r="K46" s="11"/>
+      <c r="L46" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M46" s="5"/>
@@ -4889,33 +4895,33 @@
       <c r="A47" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10" t="s">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="11" t="s">
+      <c r="J47" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M47" s="5"/>
@@ -4936,26 +4942,26 @@
       <c r="B48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10" t="s">
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M48" s="5"/>
@@ -4973,33 +4979,33 @@
       <c r="A49" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10" t="s">
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11" t="s">
+      <c r="J49" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M49" s="5"/>
@@ -5017,33 +5023,33 @@
       <c r="A50" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10" t="s">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="11" t="s">
+      <c r="J50" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K50" s="11"/>
+      <c r="L50" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M50" s="5"/>
@@ -5074,7 +5080,7 @@
       <c r="L51" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M51" s="9" t="s">
+      <c r="M51" s="13" t="s">
         <v>307</v>
       </c>
       <c r="N51" s="9" t="s">
@@ -5200,7 +5206,7 @@
       <c r="L54" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M54" s="9" t="s">
+      <c r="M54" s="13" t="s">
         <v>308</v>
       </c>
       <c r="N54" s="9" t="s">
@@ -5484,25 +5490,25 @@
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="2"/>
       <c r="F61" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
       <c r="J61" s="6" t="s">
         <v>274</v>
       </c>
@@ -5512,22 +5518,22 @@
       <c r="L61" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N61" s="5" t="s">
+      <c r="N61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O61" s="5" t="s">
+      <c r="O61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P61" s="5"/>
+      <c r="P61" s="2"/>
       <c r="Q61" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
       <c r="U61" s="6" t="s">
         <v>397</v>
       </c>
@@ -5668,7 +5674,7 @@
       <c r="L64" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M64" s="9" t="s">
+      <c r="M64" s="13" t="s">
         <v>309</v>
       </c>
       <c r="N64" s="9" t="s">
@@ -5794,7 +5800,7 @@
       <c r="L67" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M67" s="9" t="s">
+      <c r="M67" s="13" t="s">
         <v>310</v>
       </c>
       <c r="N67" s="9" t="s">
@@ -5946,25 +5952,25 @@
       <c r="V70" s="9"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="6" t="s">
         <v>274</v>
       </c>
@@ -5974,22 +5980,22 @@
       <c r="L71" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O71" s="5" t="s">
+      <c r="O71" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P71" s="5"/>
+      <c r="P71" s="2"/>
       <c r="Q71" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
       <c r="U71" s="6" t="s">
         <v>397</v>
       </c>
@@ -6118,25 +6124,25 @@
       </c>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="6" t="s">
         <v>274</v>
       </c>
@@ -6146,22 +6152,22 @@
       <c r="L74" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O74" s="5" t="s">
+      <c r="O74" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P74" s="5"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
       <c r="U74" s="6" t="s">
         <v>397</v>
       </c>
@@ -6290,25 +6296,25 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
       <c r="J77" s="6" t="s">
         <v>276</v>
       </c>
@@ -6318,22 +6324,22 @@
       <c r="L77" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O77" s="5" t="s">
+      <c r="O77" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P77" s="5"/>
+      <c r="P77" s="2"/>
       <c r="Q77" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
       <c r="U77" s="6" t="s">
         <v>397</v>
       </c>
@@ -6478,7 +6484,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6682,7 +6688,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6884,7 +6890,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7082,7 +7088,7 @@
       <c r="L92" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M92" s="9" t="s">
+      <c r="M92" s="13" t="s">
         <v>311</v>
       </c>
       <c r="N92" s="9" t="s">
@@ -7370,7 +7376,7 @@
       <c r="L99" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M99" s="9" t="s">
+      <c r="M99" s="13" t="s">
         <v>312</v>
       </c>
       <c r="N99" s="9" t="s">
@@ -7540,7 +7546,7 @@
       <c r="L103" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M103" s="9" t="s">
+      <c r="M103" s="13" t="s">
         <v>313</v>
       </c>
       <c r="N103" s="9" t="s">
@@ -7650,21 +7656,21 @@
       <c r="V105" s="9"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
       <c r="J106" s="6" t="s">
         <v>277</v>
       </c>
@@ -7674,18 +7680,18 @@
       <c r="L106" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="M106" s="5" t="s">
+      <c r="M106" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N106" s="5" t="s">
+      <c r="N106" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
       <c r="U106" s="6" t="s">
         <v>397</v>
       </c>
@@ -7806,24 +7812,24 @@
       <c r="B109" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10" t="s">
+      <c r="E109" s="11"/>
+      <c r="F109" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10" t="s">
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K109" s="10"/>
-      <c r="L109" s="11" t="s">
+      <c r="K109" s="11"/>
+      <c r="L109" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M109" s="5"/>
@@ -7841,33 +7847,33 @@
       <c r="A110" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F110" s="10" t="s">
+      <c r="F110" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G110" s="10" t="s">
+      <c r="G110" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10" t="s">
+      <c r="H110" s="11"/>
+      <c r="I110" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="J110" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K110" s="10"/>
-      <c r="L110" s="11" t="s">
+      <c r="J110" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K110" s="11"/>
+      <c r="L110" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M110" s="5"/>
@@ -7885,33 +7891,33 @@
       <c r="A111" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="F111" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10" t="s">
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="J111" s="10" t="s">
+      <c r="J111" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="K111" s="10" t="s">
+      <c r="K111" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="L111" s="11" t="s">
+      <c r="L111" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M111" s="5"/>
@@ -7942,7 +7948,7 @@
       <c r="L112" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M112" s="9" t="s">
+      <c r="M112" s="13" t="s">
         <v>39</v>
       </c>
       <c r="N112" s="9" t="s">
@@ -8012,52 +8018,52 @@
       </c>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="2"/>
       <c r="F114" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5" t="s">
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K114" s="5"/>
+      <c r="K114" s="2"/>
       <c r="L114" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="M114" s="5" t="s">
+      <c r="M114" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N114" s="5" t="s">
+      <c r="N114" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O114" s="5" t="s">
+      <c r="O114" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P114" s="5"/>
+      <c r="P114" s="2"/>
       <c r="Q114" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5" t="s">
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V114" s="5"/>
+      <c r="V114" s="2"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="5" t="s">
@@ -8236,22 +8242,22 @@
       <c r="V117" s="5"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5" t="s">
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2" t="s">
         <v>279</v>
       </c>
       <c r="K118" s="6" t="s">
@@ -8260,19 +8266,19 @@
       <c r="L118" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N118" s="5" t="s">
+      <c r="N118" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5"/>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-      <c r="U118" s="5" t="s">
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2" t="s">
         <v>279</v>
       </c>
       <c r="V118" s="6" t="s">
@@ -8658,21 +8664,21 @@
       <c r="V125" s="5"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
       <c r="J126" s="6" t="s">
         <v>280</v>
       </c>
@@ -8682,18 +8688,18 @@
       <c r="L126" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="M126" s="5" t="s">
+      <c r="M126" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N126" s="5" t="s">
+      <c r="N126" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="5"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
       <c r="U126" s="6" t="s">
         <v>397</v>
       </c>
@@ -8882,7 +8888,7 @@
       <c r="L130" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M130" s="9" t="s">
+      <c r="M130" s="13" t="s">
         <v>314</v>
       </c>
       <c r="N130" s="9" t="s">
@@ -9042,7 +9048,7 @@
       <c r="L134" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M134" s="9" t="s">
+      <c r="M134" s="13" t="s">
         <v>45</v>
       </c>
       <c r="N134" s="9" t="s">
@@ -9244,7 +9250,7 @@
       <c r="L139" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M139" s="9" t="s">
+      <c r="M139" s="13" t="s">
         <v>47</v>
       </c>
       <c r="N139" s="9" t="s">
@@ -9368,7 +9374,7 @@
       <c r="L142" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M142" s="9" t="s">
+      <c r="M142" s="13" t="s">
         <v>48</v>
       </c>
       <c r="N142" s="9" t="s">
@@ -9484,7 +9490,7 @@
       <c r="L145" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M145" s="9" t="s">
+      <c r="M145" s="13" t="s">
         <v>49</v>
       </c>
       <c r="N145" s="9" t="s">
@@ -9608,7 +9614,7 @@
       <c r="L148" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M148" s="9" t="s">
+      <c r="M148" s="13" t="s">
         <v>50</v>
       </c>
       <c r="N148" s="9" t="s">
@@ -9810,7 +9816,7 @@
       <c r="L153" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M153" s="9" t="s">
+      <c r="M153" s="13" t="s">
         <v>51</v>
       </c>
       <c r="N153" s="9" t="s">
@@ -9938,7 +9944,7 @@
       <c r="L156" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M156" s="9" t="s">
+      <c r="M156" s="13" t="s">
         <v>52</v>
       </c>
       <c r="N156" s="9" t="s">
@@ -10062,7 +10068,7 @@
       <c r="L159" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M159" s="9" t="s">
+      <c r="M159" s="13" t="s">
         <v>53</v>
       </c>
       <c r="N159" s="9" t="s">
@@ -10230,7 +10236,7 @@
       <c r="L163" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M163" s="9" t="s">
+      <c r="M163" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N163" s="9" t="s">
@@ -10556,7 +10562,7 @@
       <c r="L171" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M171" s="9" t="s">
+      <c r="M171" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N171" s="9" t="s">
@@ -10722,7 +10728,7 @@
         <v>297</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -10912,22 +10918,22 @@
       <c r="B179" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-      <c r="H179" s="10"/>
-      <c r="I179" s="10"/>
-      <c r="J179" s="10" t="s">
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="K179" s="10" t="s">
+      <c r="K179" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L179" s="11" t="s">
+      <c r="L179" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M179" s="5"/>
@@ -10945,27 +10951,27 @@
       <c r="A180" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D180" s="10" t="s">
+      <c r="D180" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10" t="s">
+      <c r="E180" s="11"/>
+      <c r="F180" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G180" s="10"/>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10"/>
-      <c r="J180" s="10" t="s">
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K180" s="10"/>
-      <c r="L180" s="11" t="s">
+      <c r="K180" s="11"/>
+      <c r="L180" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M180" s="5"/>
@@ -10983,33 +10989,33 @@
       <c r="A181" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C181" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D181" s="10" t="s">
+      <c r="D181" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E181" s="10" t="s">
+      <c r="E181" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F181" s="10" t="s">
+      <c r="F181" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G181" s="10" t="s">
+      <c r="G181" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10" t="s">
+      <c r="H181" s="11"/>
+      <c r="I181" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J181" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K181" s="10"/>
-      <c r="L181" s="11" t="s">
+      <c r="J181" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K181" s="11"/>
+      <c r="L181" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M181" s="5"/>
@@ -11030,24 +11036,24 @@
       <c r="B182" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C182" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D182" s="10" t="s">
+      <c r="D182" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10" t="s">
+      <c r="E182" s="11"/>
+      <c r="F182" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G182" s="10"/>
-      <c r="H182" s="10"/>
-      <c r="I182" s="10"/>
-      <c r="J182" s="10" t="s">
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K182" s="10"/>
-      <c r="L182" s="11" t="s">
+      <c r="K182" s="11"/>
+      <c r="L182" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M182" s="5"/>
@@ -11065,33 +11071,33 @@
       <c r="A183" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="C183" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D183" s="10" t="s">
+      <c r="D183" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="10" t="s">
+      <c r="E183" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F183" s="10" t="s">
+      <c r="F183" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G183" s="10" t="s">
+      <c r="G183" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H183" s="10"/>
-      <c r="I183" s="10" t="s">
+      <c r="H183" s="11"/>
+      <c r="I183" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J183" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K183" s="10"/>
-      <c r="L183" s="11" t="s">
+      <c r="J183" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K183" s="11"/>
+      <c r="L183" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M183" s="5"/>
@@ -11109,33 +11115,33 @@
       <c r="A184" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="D184" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="10" t="s">
+      <c r="E184" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F184" s="10" t="s">
+      <c r="F184" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G184" s="10"/>
-      <c r="H184" s="10"/>
-      <c r="I184" s="10" t="s">
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="J184" s="10" t="s">
+      <c r="J184" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="K184" s="10" t="s">
+      <c r="K184" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="L184" s="11" t="s">
+      <c r="L184" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M184" s="5"/>
@@ -11156,24 +11162,24 @@
       <c r="B185" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="C185" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="D185" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10" t="s">
+      <c r="E185" s="11"/>
+      <c r="F185" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G185" s="10"/>
-      <c r="H185" s="10"/>
-      <c r="I185" s="10"/>
-      <c r="J185" s="10" t="s">
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K185" s="10"/>
-      <c r="L185" s="11" t="s">
+      <c r="K185" s="11"/>
+      <c r="L185" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M185" s="5"/>
@@ -11191,33 +11197,33 @@
       <c r="A186" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D186" s="10" t="s">
+      <c r="D186" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E186" s="10" t="s">
+      <c r="E186" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F186" s="10" t="s">
+      <c r="F186" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G186" s="10" t="s">
+      <c r="G186" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="H186" s="10"/>
-      <c r="I186" s="10" t="s">
+      <c r="H186" s="11"/>
+      <c r="I186" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="J186" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K186" s="10"/>
-      <c r="L186" s="11" t="s">
+      <c r="J186" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K186" s="11"/>
+      <c r="L186" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M186" s="5"/>
@@ -11235,31 +11241,31 @@
       <c r="A187" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D187" s="10" t="s">
+      <c r="D187" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E187" s="10" t="s">
+      <c r="E187" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F187" s="10" t="s">
+      <c r="F187" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G187" s="10"/>
-      <c r="H187" s="10"/>
-      <c r="I187" s="10" t="s">
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="J187" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K187" s="10"/>
-      <c r="L187" s="11" t="s">
+      <c r="J187" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K187" s="11"/>
+      <c r="L187" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M187" s="5"/>
@@ -11280,20 +11286,20 @@
       <c r="B188" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
-      <c r="H188" s="10"/>
-      <c r="I188" s="10"/>
-      <c r="J188" s="10" t="s">
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K188" s="10"/>
-      <c r="L188" s="11" t="s">
+      <c r="K188" s="11"/>
+      <c r="L188" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M188" s="5"/>
@@ -11311,27 +11317,27 @@
       <c r="A189" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C189" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D189" s="10" t="s">
+      <c r="D189" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10" t="s">
+      <c r="E189" s="11"/>
+      <c r="F189" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G189" s="10"/>
-      <c r="H189" s="10"/>
-      <c r="I189" s="10"/>
-      <c r="J189" s="10" t="s">
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K189" s="10"/>
-      <c r="L189" s="11" t="s">
+      <c r="K189" s="11"/>
+      <c r="L189" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M189" s="5"/>
@@ -11349,33 +11355,33 @@
       <c r="A190" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="D190" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E190" s="10" t="s">
+      <c r="E190" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F190" s="10" t="s">
+      <c r="F190" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G190" s="10" t="s">
+      <c r="G190" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H190" s="10"/>
-      <c r="I190" s="10" t="s">
+      <c r="H190" s="11"/>
+      <c r="I190" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J190" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K190" s="10"/>
-      <c r="L190" s="11" t="s">
+      <c r="J190" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K190" s="11"/>
+      <c r="L190" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M190" s="5"/>
@@ -11396,24 +11402,24 @@
       <c r="B191" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D191" s="10" t="s">
+      <c r="D191" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10" t="s">
+      <c r="E191" s="11"/>
+      <c r="F191" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G191" s="10"/>
-      <c r="H191" s="10"/>
-      <c r="I191" s="10"/>
-      <c r="J191" s="10" t="s">
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K191" s="10"/>
-      <c r="L191" s="11" t="s">
+      <c r="K191" s="11"/>
+      <c r="L191" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M191" s="5"/>
@@ -11431,33 +11437,33 @@
       <c r="A192" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="D192" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E192" s="10" t="s">
+      <c r="E192" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F192" s="10" t="s">
+      <c r="F192" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G192" s="10" t="s">
+      <c r="G192" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H192" s="10"/>
-      <c r="I192" s="10" t="s">
+      <c r="H192" s="11"/>
+      <c r="I192" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="J192" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K192" s="10"/>
-      <c r="L192" s="11" t="s">
+      <c r="J192" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K192" s="11"/>
+      <c r="L192" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M192" s="5"/>
@@ -11475,31 +11481,31 @@
       <c r="A193" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D193" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E193" s="10" t="s">
+      <c r="E193" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F193" s="10" t="s">
+      <c r="F193" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G193" s="10"/>
-      <c r="H193" s="10"/>
-      <c r="I193" s="10" t="s">
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="J193" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K193" s="10"/>
-      <c r="L193" s="11" t="s">
+      <c r="J193" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K193" s="11"/>
+      <c r="L193" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M193" s="5"/>
@@ -11520,22 +11526,22 @@
       <c r="B194" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10" t="s">
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="K194" s="10" t="s">
+      <c r="K194" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="L194" s="11" t="s">
+      <c r="L194" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M194" s="5"/>
@@ -11553,27 +11559,27 @@
       <c r="A195" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D195" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10" t="s">
+      <c r="E195" s="11"/>
+      <c r="F195" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G195" s="10"/>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10" t="s">
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K195" s="10"/>
-      <c r="L195" s="11" t="s">
+      <c r="K195" s="11"/>
+      <c r="L195" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M195" s="5"/>
@@ -11591,33 +11597,33 @@
       <c r="A196" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C196" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D196" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E196" s="10" t="s">
+      <c r="E196" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F196" s="10" t="s">
+      <c r="F196" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G196" s="10" t="s">
+      <c r="G196" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="H196" s="10"/>
-      <c r="I196" s="10" t="s">
+      <c r="H196" s="11"/>
+      <c r="I196" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="J196" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K196" s="10"/>
-      <c r="L196" s="11" t="s">
+      <c r="J196" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K196" s="11"/>
+      <c r="L196" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M196" s="5"/>
@@ -11638,26 +11644,26 @@
       <c r="B197" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C197" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D197" s="10" t="s">
+      <c r="D197" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10" t="s">
+      <c r="E197" s="11"/>
+      <c r="F197" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G197" s="10"/>
-      <c r="H197" s="10"/>
-      <c r="I197" s="10"/>
-      <c r="J197" s="10" t="s">
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="K197" s="10" t="s">
+      <c r="K197" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="L197" s="11" t="s">
+      <c r="L197" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M197" s="5"/>
@@ -11675,33 +11681,33 @@
       <c r="A198" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C198" s="10" t="s">
+      <c r="C198" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="D198" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E198" s="10" t="s">
+      <c r="E198" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F198" s="10" t="s">
+      <c r="F198" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G198" s="10" t="s">
+      <c r="G198" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="H198" s="10"/>
-      <c r="I198" s="10" t="s">
+      <c r="H198" s="11"/>
+      <c r="I198" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="J198" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K198" s="10"/>
-      <c r="L198" s="11" t="s">
+      <c r="J198" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K198" s="11"/>
+      <c r="L198" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M198" s="5"/>
@@ -11719,33 +11725,33 @@
       <c r="A199" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C199" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="D199" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E199" s="10" t="s">
+      <c r="E199" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F199" s="10" t="s">
+      <c r="F199" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G199" s="10"/>
-      <c r="H199" s="10"/>
-      <c r="I199" s="10" t="s">
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="J199" s="10" t="s">
+      <c r="J199" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="K199" s="10" t="s">
+      <c r="K199" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="L199" s="11" t="s">
+      <c r="L199" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M199" s="5"/>
@@ -11766,24 +11772,24 @@
       <c r="B200" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D200" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10" t="s">
+      <c r="E200" s="11"/>
+      <c r="F200" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G200" s="10"/>
-      <c r="H200" s="10"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="10" t="s">
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K200" s="10"/>
-      <c r="L200" s="11" t="s">
+      <c r="K200" s="11"/>
+      <c r="L200" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M200" s="5"/>
@@ -11801,33 +11807,33 @@
       <c r="A201" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="D201" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E201" s="10" t="s">
+      <c r="E201" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F201" s="10" t="s">
+      <c r="F201" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G201" s="10" t="s">
+      <c r="G201" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10" t="s">
+      <c r="H201" s="11"/>
+      <c r="I201" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J201" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K201" s="10"/>
-      <c r="L201" s="11" t="s">
+      <c r="J201" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K201" s="11"/>
+      <c r="L201" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M201" s="5"/>
@@ -11845,33 +11851,33 @@
       <c r="A202" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C202" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D202" s="10" t="s">
+      <c r="D202" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E202" s="10" t="s">
+      <c r="E202" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F202" s="10" t="s">
+      <c r="F202" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G202" s="10"/>
-      <c r="H202" s="10"/>
-      <c r="I202" s="10" t="s">
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="J202" s="10" t="s">
+      <c r="J202" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="K202" s="10" t="s">
+      <c r="K202" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="L202" s="11" t="s">
+      <c r="L202" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M202" s="5"/>
@@ -11892,24 +11898,24 @@
       <c r="B203" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="C203" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D203" s="10" t="s">
+      <c r="D203" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10" t="s">
+      <c r="E203" s="11"/>
+      <c r="F203" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G203" s="10"/>
-      <c r="H203" s="10"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="10" t="s">
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K203" s="10"/>
-      <c r="L203" s="11" t="s">
+      <c r="K203" s="11"/>
+      <c r="L203" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M203" s="5"/>
@@ -11927,33 +11933,33 @@
       <c r="A204" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="C204" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D204" s="10" t="s">
+      <c r="D204" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E204" s="10" t="s">
+      <c r="E204" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F204" s="10" t="s">
+      <c r="F204" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G204" s="10" t="s">
+      <c r="G204" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10" t="s">
+      <c r="H204" s="11"/>
+      <c r="I204" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="J204" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K204" s="10"/>
-      <c r="L204" s="11" t="s">
+      <c r="J204" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K204" s="11"/>
+      <c r="L204" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M204" s="5"/>
@@ -11971,31 +11977,31 @@
       <c r="A205" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C205" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="D205" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E205" s="10" t="s">
+      <c r="E205" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F205" s="10" t="s">
+      <c r="F205" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
-      <c r="I205" s="10" t="s">
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J205" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K205" s="10"/>
-      <c r="L205" s="11" t="s">
+      <c r="J205" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K205" s="11"/>
+      <c r="L205" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M205" s="5"/>
@@ -12016,24 +12022,24 @@
       <c r="B206" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C206" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D206" s="10" t="s">
+      <c r="D206" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10" t="s">
+      <c r="E206" s="11"/>
+      <c r="F206" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G206" s="10"/>
-      <c r="H206" s="10"/>
-      <c r="I206" s="10"/>
-      <c r="J206" s="10" t="s">
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K206" s="10"/>
-      <c r="L206" s="11" t="s">
+      <c r="K206" s="11"/>
+      <c r="L206" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M206" s="5"/>
@@ -12051,33 +12057,33 @@
       <c r="A207" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C207" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D207" s="10" t="s">
+      <c r="D207" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E207" s="10" t="s">
+      <c r="E207" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F207" s="10" t="s">
+      <c r="F207" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G207" s="10" t="s">
+      <c r="G207" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H207" s="10"/>
-      <c r="I207" s="10" t="s">
+      <c r="H207" s="11"/>
+      <c r="I207" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="J207" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K207" s="10"/>
-      <c r="L207" s="11" t="s">
+      <c r="J207" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K207" s="11"/>
+      <c r="L207" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M207" s="5"/>
@@ -12095,31 +12101,31 @@
       <c r="A208" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D208" s="10" t="s">
+      <c r="D208" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E208" s="10" t="s">
+      <c r="E208" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F208" s="10" t="s">
+      <c r="F208" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G208" s="10"/>
-      <c r="H208" s="10"/>
-      <c r="I208" s="10" t="s">
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="J208" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K208" s="10"/>
-      <c r="L208" s="11" t="s">
+      <c r="J208" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K208" s="11"/>
+      <c r="L208" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M208" s="5"/>
@@ -12137,33 +12143,33 @@
       <c r="A209" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="C209" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D209" s="10" t="s">
+      <c r="D209" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E209" s="10" t="s">
+      <c r="E209" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F209" s="10" t="s">
+      <c r="F209" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G209" s="10" t="s">
+      <c r="G209" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H209" s="10"/>
-      <c r="I209" s="10" t="s">
+      <c r="H209" s="11"/>
+      <c r="I209" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J209" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K209" s="10"/>
-      <c r="L209" s="11" t="s">
+      <c r="J209" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K209" s="11"/>
+      <c r="L209" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M209" s="5"/>
@@ -12184,22 +12190,22 @@
       <c r="B210" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C210" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-      <c r="J210" s="10" t="s">
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="K210" s="10" t="s">
+      <c r="K210" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L210" s="11" t="s">
+      <c r="L210" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M210" s="5"/>
@@ -12217,27 +12223,27 @@
       <c r="A211" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C211" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D211" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10" t="s">
+      <c r="E211" s="11"/>
+      <c r="F211" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G211" s="10"/>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10"/>
-      <c r="J211" s="10" t="s">
+      <c r="G211" s="11"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K211" s="10"/>
-      <c r="L211" s="11" t="s">
+      <c r="K211" s="11"/>
+      <c r="L211" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M211" s="5"/>
@@ -12255,33 +12261,33 @@
       <c r="A212" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="C212" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D212" s="10" t="s">
+      <c r="D212" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E212" s="10" t="s">
+      <c r="E212" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F212" s="10" t="s">
+      <c r="F212" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G212" s="10" t="s">
+      <c r="G212" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="H212" s="10"/>
-      <c r="I212" s="10" t="s">
+      <c r="H212" s="11"/>
+      <c r="I212" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J212" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K212" s="10"/>
-      <c r="L212" s="11" t="s">
+      <c r="J212" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K212" s="11"/>
+      <c r="L212" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M212" s="5"/>
@@ -12299,27 +12305,27 @@
       <c r="A213" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="C213" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D213" s="10" t="s">
+      <c r="D213" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10" t="s">
+      <c r="E213" s="11"/>
+      <c r="F213" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G213" s="10"/>
-      <c r="H213" s="10"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="10" t="s">
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K213" s="10"/>
-      <c r="L213" s="11" t="s">
+      <c r="K213" s="11"/>
+      <c r="L213" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M213" s="5"/>
@@ -12337,33 +12343,33 @@
       <c r="A214" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="C214" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="D214" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E214" s="10" t="s">
+      <c r="E214" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F214" s="10" t="s">
+      <c r="F214" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G214" s="10" t="s">
+      <c r="G214" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H214" s="10"/>
-      <c r="I214" s="10" t="s">
+      <c r="H214" s="11"/>
+      <c r="I214" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J214" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K214" s="10"/>
-      <c r="L214" s="11" t="s">
+      <c r="J214" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K214" s="11"/>
+      <c r="L214" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M214" s="5"/>
@@ -12381,31 +12387,31 @@
       <c r="A215" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="C215" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D215" s="10" t="s">
+      <c r="D215" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E215" s="10" t="s">
+      <c r="E215" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10" t="s">
+      <c r="F215" s="11"/>
+      <c r="G215" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H215" s="10"/>
-      <c r="I215" s="10" t="s">
+      <c r="H215" s="11"/>
+      <c r="I215" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="J215" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K215" s="10"/>
-      <c r="L215" s="11" t="s">
+      <c r="J215" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K215" s="11"/>
+      <c r="L215" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M215" s="5"/>
@@ -12423,31 +12429,31 @@
       <c r="A216" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="C216" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D216" s="10" t="s">
+      <c r="D216" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E216" s="10" t="s">
+      <c r="E216" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10" t="s">
+      <c r="F216" s="11"/>
+      <c r="G216" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H216" s="10"/>
-      <c r="I216" s="10" t="s">
+      <c r="H216" s="11"/>
+      <c r="I216" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="J216" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K216" s="10"/>
-      <c r="L216" s="11" t="s">
+      <c r="J216" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K216" s="11"/>
+      <c r="L216" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M216" s="5"/>
@@ -12465,31 +12471,31 @@
       <c r="A217" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C217" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="D217" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E217" s="10" t="s">
+      <c r="E217" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10" t="s">
+      <c r="F217" s="11"/>
+      <c r="G217" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10" t="s">
+      <c r="H217" s="11"/>
+      <c r="I217" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J217" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K217" s="10"/>
-      <c r="L217" s="11" t="s">
+      <c r="J217" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K217" s="11"/>
+      <c r="L217" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M217" s="5"/>
@@ -12510,22 +12516,22 @@
       <c r="B218" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C218" s="10" t="s">
+      <c r="C218" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-      <c r="H218" s="10"/>
-      <c r="I218" s="10"/>
-      <c r="J218" s="10" t="s">
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="K218" s="10" t="s">
+      <c r="K218" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="L218" s="11" t="s">
+      <c r="L218" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M218" s="5"/>
@@ -12543,27 +12549,27 @@
       <c r="A219" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C219" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D219" s="10" t="s">
+      <c r="D219" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10" t="s">
+      <c r="E219" s="11"/>
+      <c r="F219" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G219" s="10"/>
-      <c r="H219" s="10"/>
-      <c r="I219" s="10"/>
-      <c r="J219" s="10" t="s">
+      <c r="G219" s="11"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K219" s="10"/>
-      <c r="L219" s="11" t="s">
+      <c r="K219" s="11"/>
+      <c r="L219" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M219" s="5"/>
@@ -12581,33 +12587,33 @@
       <c r="A220" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C220" s="10" t="s">
+      <c r="C220" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D220" s="10" t="s">
+      <c r="D220" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E220" s="10" t="s">
+      <c r="E220" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F220" s="10" t="s">
+      <c r="F220" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G220" s="10" t="s">
+      <c r="G220" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H220" s="10"/>
-      <c r="I220" s="10" t="s">
+      <c r="H220" s="11"/>
+      <c r="I220" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="J220" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K220" s="10"/>
-      <c r="L220" s="11" t="s">
+      <c r="J220" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K220" s="11"/>
+      <c r="L220" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M220" s="5"/>
@@ -12625,31 +12631,31 @@
       <c r="A221" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C221" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D221" s="10" t="s">
+      <c r="D221" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E221" s="10" t="s">
+      <c r="E221" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F221" s="10" t="s">
+      <c r="F221" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G221" s="10"/>
-      <c r="H221" s="10"/>
-      <c r="I221" s="10" t="s">
+      <c r="G221" s="11"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="J221" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K221" s="10"/>
-      <c r="L221" s="11" t="s">
+      <c r="J221" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K221" s="11"/>
+      <c r="L221" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M221" s="5"/>
@@ -12670,22 +12676,22 @@
       <c r="B222" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="C222" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10"/>
-      <c r="H222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="10" t="s">
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="K222" s="10" t="s">
+      <c r="K222" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="L222" s="11" t="s">
+      <c r="L222" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M222" s="5"/>
@@ -12703,27 +12709,27 @@
       <c r="A223" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C223" s="10" t="s">
+      <c r="C223" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D223" s="10" t="s">
+      <c r="D223" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E223" s="10"/>
-      <c r="F223" s="10" t="s">
+      <c r="E223" s="11"/>
+      <c r="F223" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G223" s="10"/>
-      <c r="H223" s="10"/>
-      <c r="I223" s="10"/>
-      <c r="J223" s="10" t="s">
+      <c r="G223" s="11"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K223" s="10"/>
-      <c r="L223" s="11" t="s">
+      <c r="K223" s="11"/>
+      <c r="L223" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M223" s="5"/>
@@ -12741,33 +12747,33 @@
       <c r="A224" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="C224" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D224" s="10" t="s">
+      <c r="D224" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E224" s="10" t="s">
+      <c r="E224" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F224" s="10" t="s">
+      <c r="F224" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G224" s="10" t="s">
+      <c r="G224" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H224" s="10"/>
-      <c r="I224" s="10" t="s">
+      <c r="H224" s="11"/>
+      <c r="I224" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="J224" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K224" s="10"/>
-      <c r="L224" s="11" t="s">
+      <c r="J224" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K224" s="11"/>
+      <c r="L224" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M224" s="5"/>
@@ -12785,31 +12791,31 @@
       <c r="A225" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C225" s="10" t="s">
+      <c r="C225" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D225" s="10" t="s">
+      <c r="D225" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E225" s="10" t="s">
+      <c r="E225" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F225" s="10" t="s">
+      <c r="F225" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G225" s="10"/>
-      <c r="H225" s="10"/>
-      <c r="I225" s="10" t="s">
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="J225" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K225" s="10"/>
-      <c r="L225" s="11" t="s">
+      <c r="J225" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K225" s="11"/>
+      <c r="L225" s="12" t="s">
         <v>306</v>
       </c>
       <c r="M225" s="5"/>
@@ -12844,7 +12850,7 @@
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -13210,7 +13216,7 @@
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -13392,48 +13398,48 @@
       <c r="V236" s="5"/>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5" t="s">
+      <c r="C237" s="2"/>
+      <c r="D237" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E237" s="5"/>
+      <c r="E237" s="2"/>
       <c r="F237" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5" t="s">
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K237" s="5"/>
+      <c r="K237" s="2"/>
       <c r="L237" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="M237" s="5" t="s">
+      <c r="M237" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N237" s="5"/>
-      <c r="O237" s="5" t="s">
+      <c r="N237" s="2"/>
+      <c r="O237" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P237" s="5"/>
+      <c r="P237" s="2"/>
       <c r="Q237" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5" t="s">
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V237" s="5"/>
+      <c r="V237" s="2"/>
     </row>
     <row r="238" spans="1:22">
       <c r="A238" s="5" t="s">
